--- a/Knowledge_Graph/Analytics/Probe_precision/mt_disease_mutations_20250205_001717.xlsx
+++ b/Knowledge_Graph/Analytics/Probe_precision/mt_disease_mutations_20250205_001717.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Genealogy\GitHub\mitochondrial_dna_research\Mitochondrial-DNA-Research\Knowledge Graph\Analytics\Probe precision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Genealogy\GitHub\mitochondrial_dna_research\Mitochondrial-DNA-Research\Knowledge_Graph\Analytics\Probe_precision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC347D72-F3EB-40C2-93BC-FE54B7CAE4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38869BD-F3D7-4566-8A57-9540A59DEC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study_sample_disease_mutations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="168">
   <si>
     <t>variant</t>
   </si>
@@ -421,171 +421,96 @@
     <t>seq_variants</t>
   </si>
   <si>
-    <t>JX462702</t>
-  </si>
-  <si>
     <t>[G3316A]</t>
   </si>
   <si>
     <t>[C146T,C152T,C195T,A247G,308.1C,309.1C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,G3316A,T3594C,G4104A,T4312C,4316.1C,A4402d,G4959A,G6764A,G7146A,T7256C,A7521G,A7521d,A8280d,T8468C,G8584A,T8655C,G8701A,G8860A,C9540T,C9902T,T10118C,10130.1AA,A10135d,AA10135d,A10136d,G10398A,T10664C,A10688G,C10810T,C10873T,C10915T,C11047A,G11778A,A11914G,T12705C,T12714C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,A14903C,T15055C,T15642C,A15896G,A16129G,T16187d,16188.1T,T16223C,G16230A,T16278C,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>JX462703</t>
-  </si>
-  <si>
     <t>[C146T,C152T,C195T,A247G,309.1C,314.1C,T489C,C511T,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,G1664A,T2360d,TG2360d,G2361d,G2695A,A2758G,G2831A,C2885T,G3316A,T3594C,G4104A,T4312C,4316.1C,A4402d,A4916G,C6377T,C6584T,G7146A,T7256C,A7521G,A7521d,G8251A,A8280d,T8468C,T8655C,C10400T,T10664C,A10688G,C10810T,C10915T,C10976T,A11413G,G11778A,A11914G,G12007A,G12618A,G13105A,G13276A,T13506C,T13650C,A13651G,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,A15924G,A16129G,T16187d,16188.1T,G16230A,T16278C,A16289G,C16519T]</t>
   </si>
   <si>
-    <t>HM346902</t>
-  </si>
-  <si>
     <t>[T3394C]</t>
   </si>
   <si>
     <t>[C146T,C152T,A153G,C195T,A247G,309.1C,314.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,A1041G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3394C,T3594C,G4104A,T4312C,4316.1C,A4402d,G4491A,G7146A,A7521G,A7521d,A8280d,T8468C,T8655C,G9305A,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14308C,T14783C,G15043A,G15301A,A16129G,G16145A,T16187d,16188.1T,G16230A,C16234T,T16278C,C16311T,A16316G,T16362C,C16519T]</t>
   </si>
   <si>
-    <t>JQ797793</t>
-  </si>
-  <si>
     <t>[C146T,C152T,G185A,C195T,G228A,A247G,C295T,309.1C,C462T,T482C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,G3010A,T3394C,T3594C,G4104A,T4216C,T4312C,4316.1C,A4402d,G7146A,T7256C,A7521G,A7521d,G7910R,G8020A,A8280d,T8468C,T8655C,G8701A,C9540T,T10664C,A10688G,C10810T,C10873T,C10915T,A11251G,T11287C,G11778A,A11914G,A12612G,T12705C,G13105A,G13276A,T13506C,T13650C,G13708A,G14160d,GA14160d,A14161d,T14798C,C15452A,C16069T,T16126C,A16129G,T16187d,16188.1T,16189.1T,T16223C,G16230A,T16278C,C16292T,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>JQ797797</t>
-  </si>
-  <si>
     <t>[C146T,C152T,G185A,C195T,G228A,A247G,C295T,308.1C,309.1C,C462T,T482C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,566.1CC,567.1CC,A769G,A825T,C867d,A1018G,A1790R,T2360d,TG2360d,G2361d,A2758G,C2885T,G3010A,T3394C,T3594C,G4104A,T4216C,T4312C,4316.1C,A4402d,G7146A,T7256C,A7521G,A7521d,A8280d,T8468C,T8655C,G8701A,C9540T,T10664C,A10688G,C10810T,C10873T,C10915T,A11251G,G11778A,A11914G,A12612G,T12705C,G13105A,G13276A,T13506C,T13650C,G13708A,A14189G,T14798C,C15452A,C16069T,T16126C,A16129G,T16187d,16188.1T,T16223C,G16230A,T16278C,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>KT726046</t>
-  </si>
-  <si>
     <t>[C146T,C152T,A153G,C195T,A247G,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,A1041G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3394C,T3594C,G4104A,T4312C,4316.1C,A4402d,G4491A,G7146A,T7256N,A7521G,A7521d,A8280d,T8468C,T8655C,G9305A,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14308C,T14783C,G15043A,G15301A,A16129G,G16145A,T16187d,16188.1T,G16230A,C16234T,T16278C,C16311T,A16316G,T16362C,C16519T]</t>
   </si>
   <si>
-    <t>KT726091</t>
-  </si>
-  <si>
     <t>[C146T,C152T,A153G,C195T,A247G,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,A1041G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3394C,T3594C,G4104A,T4312C,4316.1C,A4402d,G4491A,G7146A,A7521G,A7521d,A8280d,T8468C,T8655C,G9305A,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14308C,T14783C,G15043A,G15301A,A16129G,G16145A,T16187d,16188.1T,G16230A,C16234T,T16278C,C16311T,A16316G,T16362C,C16519T]</t>
   </si>
   <si>
-    <t>KX457432</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C151d,A153T,154.1G,C195T,A247G,308.1C,309.1C,A385G,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3394C,T3594C,G4104A,T4312C,4316.1C,A4402d,G4491A,G7146A,T7256C,A7521G,A7521d,G8155A,A8280d,T8468C,T8655C,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12237T,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14308C,T14783C,G15043A,G15301A,A16129G,C16148T,T16187d,16188.1T,G16230A,C16234T,T16278C,C16311T,16355.1C,C16355d,T16362C,C16519T]</t>
   </si>
   <si>
-    <t>MN176257</t>
-  </si>
-  <si>
     <t>[C3497T,C3571T]</t>
   </si>
   <si>
     <t>[C150T,151.1T,C151d,A189G,A247G,T310C,311.1C,312.1C,313.1C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,G709A,A769G,A825T,A1018G,T1119C,T2360d,TG2360d,G2361d,T2626C,A2758G,C2885T,N3107d,C3497T,C3571T,T3594C,G3834A,G4104A,T4312C,4316.1C,A4402d,G7146A,T7256C,A7521G,A7521d,A8280d,T8468C,T8655C,G8701A,C9540T,G10398A,T10664C,A10688G,C10810T,C10873T,C10915T,G11778A,A11914G,T12705C,G13105A,G13276A,T13506C,T13650C,C13782T,G14160d,GA14160d,A14161d,G15323A,G15346A,A16129G,T16140C,A16180C,A16181C,A16182C,A16183d,T16187d,T16217C,T16223C,G16230A,G16274A,T16278C,C16311T,A16335G]</t>
   </si>
   <si>
-    <t>FJ198215</t>
-  </si>
-  <si>
     <t>[T12338C]</t>
   </si>
   <si>
     <t>[C146T,C152T,C195T,T246C,A247G,A248d,C296T,308.1C,309.1C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,T1005C,A1018G,T1824C,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,C3970T,G4104A,T4312C,4316.1C,A4402d,T6392C,G7146A,T7256C,A7521G,A7521d,A7828G,A8280d,T8468C,T8655C,G8701A,C9540T,G10310A,G10398A,T10535C,G10586A,T10664C,A10688G,C10810T,C10873T,C10915T,G11778A,A11914G,T12338C,G12372A,T12705C,G13105A,G13276A,T13506C,T13650C,G13708A,G13928C,G14160d,GA14160d,A14161d,T16093C,A16129G,T16187d,16188.1T,A16203G,T16223C,G16230A,T16278C,C16291T,T16304C,C16311T]</t>
   </si>
   <si>
-    <t>FJ198219</t>
-  </si>
-  <si>
     <t>[T12811C]</t>
   </si>
   <si>
     <t>[C146T,C150T,151.1T,C151d,152.1T,T159C,C195T,T199C,A247G,308.1CC,309.1C,309.1CC,310.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,A5351G,G5460A,C6455T,T6680C,G7146A,T7256C,G7444C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,G9575A,T9824C,C10159T,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,T11944C,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,T16092C,16185.1CC,16186.1CC,C16190T,C16191d,C16192d,G16230A,T16278C,T16297C,C16311T,C16360T,C16519T]</t>
   </si>
   <si>
-    <t>FJ198220</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C195T,T199C,A247G,308.1C,309.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,T5130C,A5351G,G5460A,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,T9824C,A10397G,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12405T,T12811C,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,16185.1CC,C16190T,C16191d,C16192d,G16230A,T16278C,T16297C,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>FJ198221</t>
-  </si>
-  <si>
     <t>[C146T,148.1T,C151T,C152d,T157d,158.1C,C182T,C195T,T199C,A247G,309.1C,310.1C,314.1C,315.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,A5351G,G5460A,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,C9732T,T9824C,T10084C,C10159T,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,T11944C,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,T14971C,G15043A,G15301A,T16092C,16185.1CC,16186.1CC,C16190T,C16191d,C16192d,G16230A,A16252d,16254.1G,A16254G,T16278C,16292.1C,T16297C,T16298d,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>FJ198222</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C195T,T199C,A247G,308.1CC,309.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,T980C,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,A5351G,G5460A,A6125G,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,T9824C,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,16185.1CC,16186.1CC,C16190T,C16191d,C16192d,G16230A,T16278C,T16297C,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>FJ198223</t>
-  </si>
-  <si>
     <t>[C150T,151.1T,C151d,152.1T,C195T,T199C,A247G,308.1C,309.1C,310.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,G930A,954.1C,C956d,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,T5267C,A5351G,G5460A,C6455T,C6665T,T6680C,G7146A,A7158G,T7256C,A7521G,A7521d,T7684C,G7853A,T8110C,T8167C,A8280d,T8468C,T8655C,T9824C,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,T16187d,16188.1T,16189.1T,G16230A,T16278C,T16297C,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>FJ198224</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C195T,T199C,A247G,308.1C,309.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,T4586C,A5351G,G5460A,C6228T,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,C9732T,T9824C,C10400T,T10664C,A10688G,C10810T,C10915T,C11407T,G11778A,A11914G,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,T16187d,16188.1T,G16230A,A16269G,T16278C,T16297C,C16311T,C16519T,C16527T]</t>
   </si>
   <si>
-    <t>FJ198225</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C195T,T199C,A247G,308.1CC,309.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,A5351G,G5460A,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,T9824C,T10345C,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,A16183C,16184.1C,T16187d,G16230A,T16278C,T16297C,T16298C,C16519T]</t>
   </si>
   <si>
-    <t>JF896798</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C195T,T199C,A247G,309.1C,314.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,T593C,A769G,A825T,A1018G,T1694C,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,C4137T,A4164G,T4312C,4316.1C,A4402d,A5351G,G5460A,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,T9824C,C10400T,T10664C,A10688G,C10810T,C10915T,C11659T,G11778A,A11914G,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,T16187C,G16230A,T16278C,T16297C,C16311T]</t>
   </si>
   <si>
-    <t>JN645818</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C195T,T199C,A247G,308.1CC,309.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A866G,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,A5351G,G5460A,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,T8999C,T9824C,T10345C,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,A16183C,16184.1C,T16187d,G16230A,T16278C,T16297C,T16298C,C16311T,T16325C,C16519T]</t>
   </si>
   <si>
-    <t>JN645819</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C195T,T199C,A247G,308.1C,309.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,T4736C,A5351G,G5460A,C6455T,A6509G,T6680C,T6827C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,T9824C,C10400T,T10664C,A10688G,C10810T,T10861C,C10915T,G11778A,A11914G,C12405T,T12811C,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,16185.1CC,C16190T,C16191d,C16192d,G16230A,T16278C,T16297C,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>JN645820</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C195T,T199C,A247G,308.1C,309.1C,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,A5351G,G5460A,C6228T,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,T9824C,A10232G,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,G15043A,G15301A,16185.1CC,C16190T,C16191d,C16192d,G16230A,T16278C,T16297C,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>JN645821</t>
-  </si>
-  <si>
     <t>[C146T,C150T,C152T,C194d,195.1T,C195T,T199C,T204C,A247G,308.1CC,309.1C,309.1CC,310.1C,C456T,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,N3107d,T3594C,G4048A,C4071T,G4104A,A4164G,T4312C,4316.1C,A4402d,A5351G,G5460A,C6455T,T6680C,G7146A,T7256C,A7521G,A7521d,T7684C,G7853A,A8280d,T8468C,T8655C,T9824C,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12405T,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14783C,A14978G,G15043A,G15301A,T16187C,G16230A,T16278C,T16297C,C16311T,C16519T]</t>
   </si>
   <si>
-    <t>JX508850</t>
-  </si>
-  <si>
     <t>[C146T,A247G,T489C,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,527.1A,528.1C,529.1A,530.1C,A769G,A825T,A1018G,G1719A,G1888A,T2360d,TG2360d,G2361d,A2758G,C2885T,T3594C,G4104A,T4312C,4316.1C,A4402d,C4851T,A5319G,A6218G,T6413C,G6917A,A7055G,G7146A,T7256C,A7521G,A7521d,G7853A,A8280d,G8392A,T8468C,G8557A,T8655C,G8790A,C10400T,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,T12811C,G13105A,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,G15043A,G15301A,G15884A,A16182C,A16183C,16184.1C,T16187d,T16223C,G16230A,T16278C,C16311T,T16325C]</t>
   </si>
   <si>
-    <t>JX462738</t>
-  </si>
-  <si>
     <t>[T14502C]</t>
   </si>
   <si>
     <t>[C146T,C152T,C195T,A247G,308.1C,309.1C,310.1C,T489C,514.1GA,521-524d,A521d,ACNN521d,C522d,N523A,N523d,NN523d,N524C,N524d,525.1A,526.1C,566.1C,567.1C,G709A,A769G,A825T,A1018G,T2360d,TG2360d,G2361d,A2758G,C2885T,3171.1C,T3594C,G4104A,C4140T,T4312C,4316.1C,A4402d,G7146A,A7250G,T7256C,A7521G,A7521d,A8280d,T8468C,T8655C,T8793C,G8856A,C10400T,G10646A,T10664C,A10688G,C10810T,C10915T,G11778A,A11914G,C12549T,G13105A,A13152G,G13276A,T13506C,T13650C,G14160d,GA14160d,A14161d,T14502C,T14783C,G15043A,C15050T,T15071C,A15218G,C15302T,A16066G,A16129G,T16187d,16188.1T,T16217C,G16230A,T16278C,C16519T]</t>
   </si>
   <si>
-    <t>FJ198228</t>
-  </si>
-  <si>
     <t>[A14693G]</t>
   </si>
   <si>
@@ -614,6 +539,9 @@
   </si>
   <si>
     <t>Y. Dai et al., “Mutation analysis of Leber’s hereditary optic neuropathy using a multi-gene panel,” Biomedical Reports, vol. 8, no. 1, p. 51, Nov. 2017, doi: 10.3892/br.2017.1014.</t>
+  </si>
+  <si>
+    <t>Sequennces are removed to anonymize identities</t>
   </si>
 </sst>
 </file>
@@ -624,9 +552,17 @@
     <numFmt numFmtId="164" formatCode="#######"/>
     <numFmt numFmtId="165" formatCode="####"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -653,10 +589,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1967,7 +1906,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,353 +1932,305 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
       </c>
       <c r="C2">
         <v>3316</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>3316</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <v>3394</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>3394</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6">
         <v>3394</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>139</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>3394</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>141</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <v>3394</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9">
         <v>3394</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>145</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>3497</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>12338</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>12811</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>154</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>12811</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>156</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C14">
         <v>12811</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>158</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C15">
         <v>12811</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C16">
         <v>12811</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C17">
         <v>12811</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>164</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C18">
         <v>12811</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>166</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>12811</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>168</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C20">
         <v>12811</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>170</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C21">
         <v>12811</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>172</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <v>12811</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>174</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C23">
         <v>12811</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C24">
         <v>12811</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>178</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C25">
         <v>14502</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>181</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C26">
         <v>14693</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,46 +2240,49 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D27" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>